--- a/TestTable.xlsx
+++ b/TestTable.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Guest checkout</t>
   </si>
@@ -66,16 +66,26 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>NOK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,14 +397,15 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="25.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
@@ -437,6 +449,9 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -445,6 +460,15 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -453,6 +477,12 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -461,6 +491,15 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -469,8 +508,15 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestTable.xlsx
+++ b/TestTable.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="9765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21285" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22.11.2025" sheetId="1" r:id="rId1"/>
+    <sheet name="28.11.2025" sheetId="2" r:id="rId2"/>
+    <sheet name="09.12.2025" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>Guest checkout</t>
   </si>
@@ -69,13 +72,43 @@
   </si>
   <si>
     <t>NOK</t>
+  </si>
+  <si>
+    <t>How to Pay</t>
+  </si>
+  <si>
+    <t>Customer Guide</t>
+  </si>
+  <si>
+    <t>Download Wallets</t>
+  </si>
+  <si>
+    <t>Merchant Guide</t>
+  </si>
+  <si>
+    <t>Become a Partner</t>
+  </si>
+  <si>
+    <t>Technical Setup</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>5 reasons to pay with crypto</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +122,36 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFCC33"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,14 +171,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -519,4 +608,331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>